--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-689997.5032594878</v>
+        <v>-691885.0847758896</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>163.0892347626828</v>
+        <v>216.2672280406551</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>216.5532452926075</v>
+        <v>269.0275088281772</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>391.6013384833254</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>104.6374553280953</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81.39738722345938</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>207.5912001051813</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>149.5131378084061</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>59.33237560266956</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>210.2566159882294</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.73375972274951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>11.59610874633543</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>49.1475754425765</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>137.9226914996337</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>25.37433807241442</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>160.2033576358104</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>14.74535924798298</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113189</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>108.3194750987165</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>80.00205620262095</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,16 +2767,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>70.97844236227793</v>
       </c>
       <c r="E31" t="n">
         <v>91.23070601801209</v>
@@ -2965,10 +2965,10 @@
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>55.21598883571488</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3004,16 +3004,16 @@
         <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>187.3077466348601</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
         <v>163.3813967235377</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
         <v>80.78193823789546</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415302</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789542</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>744.3346612638211</v>
+        <v>1194.534876920951</v>
       </c>
       <c r="C2" t="n">
-        <v>744.3346612638211</v>
+        <v>825.5723599805394</v>
       </c>
       <c r="D2" t="n">
-        <v>386.0689626570706</v>
+        <v>825.5723599805394</v>
       </c>
       <c r="E2" t="n">
-        <v>386.0689626570706</v>
+        <v>439.7841073822952</v>
       </c>
       <c r="F2" t="n">
         <v>221.3323618866839</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.934501327943</v>
+        <v>1581.134716985073</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.3883323957195</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>509.3883323957195</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>509.3883323957195</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>509.3883323957195</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>509.3883323957195</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1253.251950079336</v>
+        <v>1527.841322636248</v>
       </c>
       <c r="C5" t="n">
-        <v>1253.251950079336</v>
+        <v>1527.841322636248</v>
       </c>
       <c r="D5" t="n">
-        <v>1253.251950079336</v>
+        <v>1527.841322636248</v>
       </c>
       <c r="E5" t="n">
-        <v>867.4636974810921</v>
+        <v>1142.053070038004</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>731.0671652483963</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>313.1033571465832</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1914.44116270037</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143458</v>
+        <v>1914.44116270037</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>361.80799380017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600563</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600563</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600563</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541694</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541694</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X7" t="n">
-        <v>444.0275768541694</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>444.0275768541694</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1387.069036214947</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.106519274536</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>604.6780100036603</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>218.8897574054161</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
         <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2461.039910804444</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2461.039910804444</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2129.977023460873</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1777.208368190759</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X8" t="n">
-        <v>1777.208368190759</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y8" t="n">
-        <v>1387.069036214947</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E10" t="n">
         <v>190.2718927217162</v>
@@ -4957,10 +4957,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750361</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750361</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750361</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750361</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="X10" t="n">
-        <v>272.8312459770187</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="Y10" t="n">
-        <v>190.2718927217162</v>
+        <v>338.1849863041093</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.7169704793941</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="C13" t="n">
-        <v>591.7807875514873</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D13" t="n">
-        <v>441.6641481391515</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>293.7510545567584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>146.8611070588479</v>
+        <v>359.169691290395</v>
       </c>
       <c r="G13" t="n">
-        <v>146.8611070588479</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H13" t="n">
-        <v>146.8611070588479</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>955.103143565574</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X13" t="n">
-        <v>981.5095496229243</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="Y13" t="n">
-        <v>760.7169704793941</v>
+        <v>665.6859735286131</v>
       </c>
     </row>
     <row r="14">
@@ -5255,52 +5255,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5309,16 +5309,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>985.7136853104472</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C16" t="n">
-        <v>816.7775023825403</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>666.6608629702046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>666.6608629702046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5467,19 +5467,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>985.7136853104474</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="X16" t="n">
-        <v>985.7136853104474</v>
+        <v>441.9005583181188</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.7136853104472</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5537,28 +5537,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>378.1030765138935</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>624.8682044203576</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>932.1883377003194</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.59991596447</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>712.817008502768</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C19" t="n">
-        <v>712.817008502768</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="D19" t="n">
-        <v>562.7003690904323</v>
+        <v>518.4490261893317</v>
       </c>
       <c r="E19" t="n">
-        <v>562.7003690904323</v>
+        <v>370.5359326069386</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>223.6459851090282</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>223.6459851090282</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>874.6385818722736</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X19" t="n">
-        <v>874.6385818722736</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y19" t="n">
-        <v>874.6385818722736</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5744,28 +5744,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899126</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028586</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028586</v>
+        <v>213.9110074201013</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028586</v>
+        <v>213.9110074201013</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,43 +5972,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6084,10 +6084,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,7 +6163,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6172,22 +6172,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>835.4163915387938</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805482</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>622.9469297333503</v>
+        <v>468.281933461499</v>
       </c>
       <c r="C28" t="n">
-        <v>622.9469297333503</v>
+        <v>358.8683222506742</v>
       </c>
       <c r="D28" t="n">
-        <v>472.8302903210146</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>324.9171967386214</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>178.0272492407111</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6415,19 +6415,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>1133.156678913841</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W28" t="n">
-        <v>843.7395088768804</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X28" t="n">
-        <v>843.7395088768804</v>
+        <v>870.7229774352688</v>
       </c>
       <c r="Y28" t="n">
-        <v>622.9469297333503</v>
+        <v>649.9303982917387</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508391</v>
+        <v>728.2144416160932</v>
       </c>
       <c r="C31" t="n">
-        <v>543.042358604303</v>
+        <v>615.0391239695571</v>
       </c>
       <c r="D31" t="n">
-        <v>448.686584473338</v>
+        <v>543.3437276440238</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723157</v>
+        <v>451.1914993430016</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557762</v>
+        <v>360.062417126462</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>247.6479607276534</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
@@ -6619,16 +6619,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6643,28 +6643,28 @@
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1425.018745399358</v>
       </c>
       <c r="W31" t="n">
-        <v>947.1369896618673</v>
+        <v>1191.362440643768</v>
       </c>
       <c r="X31" t="n">
-        <v>947.1369896618673</v>
+        <v>1019.133755027121</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.105275799708</v>
+        <v>854.1020411649621</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6722,28 +6722,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649694</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,10 +6877,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="35">
@@ -6932,7 +6932,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
@@ -6944,13 +6944,13 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7002,34 +7002,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.193690363625</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649692</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7154,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7181,19 +7181,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,7 +7330,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
@@ -7351,28 +7351,28 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010315</v>
@@ -7388,28 +7388,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7424,13 +7424,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,37 +7476,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7713,37 +7713,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108336</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083212</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850452</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8055,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>91.23759968302028</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.6461250100646</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>127.6461250100646</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>297.3877236703344</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928342</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>52.49733361305221</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>168.2358714356019</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>61.2716700216955</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>7.498356523297531</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2103152796804</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.62862254612692</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.168469119553</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>30.90698584635182</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338525</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338569</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>58.9273459999113</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>86.49151226075664</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,16 +24655,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>22.43377402737734</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523569</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>44.01199507317384</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-7.46078767100878e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="D2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660707</v>
       </c>
       <c r="E2" t="n">
         <v>195514.5298688544</v>
@@ -26335,25 +26335,25 @@
         <v>195514.5298688544</v>
       </c>
       <c r="J2" t="n">
-        <v>195514.5298688544</v>
+        <v>195514.5298688545</v>
       </c>
       <c r="K2" t="n">
-        <v>203411.0686726353</v>
+        <v>203411.0686726354</v>
       </c>
       <c r="L2" t="n">
         <v>205260.4424660711</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660711</v>
       </c>
       <c r="O2" t="n">
+        <v>205260.4424660711</v>
+      </c>
+      <c r="P2" t="n">
         <v>205260.4424660712</v>
-      </c>
-      <c r="P2" t="n">
-        <v>205260.4424660711</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925932</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284555</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284564</v>
       </c>
     </row>
     <row r="4">
@@ -26433,13 +26433,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143912</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="K4" t="n">
         <v>33210.29213563564</v>
@@ -26448,16 +26448,16 @@
         <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275952</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275959</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="O4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.4568627596</v>
+        <v>37464.45686275956</v>
       </c>
     </row>
     <row r="5">
@@ -26470,37 +26470,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.1058200254</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002542</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-624341.4730631057</v>
+        <v>-624341.4730631058</v>
       </c>
       <c r="C6" t="n">
-        <v>-34373.59384856127</v>
+        <v>-34373.59384856129</v>
       </c>
       <c r="D6" t="n">
-        <v>-34373.59384856127</v>
+        <v>-34373.59384856134</v>
       </c>
       <c r="E6" t="n">
-        <v>-436678.5021781973</v>
+        <v>-436775.9613041696</v>
       </c>
       <c r="F6" t="n">
-        <v>88481.53429869871</v>
+        <v>88384.07517272646</v>
       </c>
       <c r="G6" t="n">
-        <v>88481.53429869852</v>
+        <v>88384.0751727265</v>
       </c>
       <c r="H6" t="n">
-        <v>88481.53429869874</v>
+        <v>88384.07517272656</v>
       </c>
       <c r="I6" t="n">
-        <v>88481.53429869887</v>
+        <v>88384.07517272656</v>
       </c>
       <c r="J6" t="n">
-        <v>-87941.68489389424</v>
+        <v>-88039.14401986661</v>
       </c>
       <c r="K6" t="n">
-        <v>29409.9627039312</v>
+        <v>29391.46896599704</v>
       </c>
       <c r="L6" t="n">
-        <v>59737.97298241929</v>
+        <v>59737.97298241928</v>
       </c>
       <c r="M6" t="n">
-        <v>-64720.13545055116</v>
+        <v>-64720.1354505509</v>
       </c>
       <c r="N6" t="n">
-        <v>70080.87978328612</v>
+        <v>70080.87978328617</v>
       </c>
       <c r="O6" t="n">
-        <v>70080.8797832862</v>
+        <v>70080.87978328617</v>
       </c>
       <c r="P6" t="n">
-        <v>25918.27448044033</v>
+        <v>25918.27448044057</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26820,7 +26820,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,22 +26966,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>243.7868109790286</v>
+        <v>190.6088177010563</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>69.9697530439835</v>
+        <v>17.49548950841381</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.27470725838606</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>219.2853174362618</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>98.43459295847792</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>18.11845528385589</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>257.3629079333053</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>157.1159447549882</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>76.26638234836159</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.8508936293453</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.238049662788398e-12</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,16 +35644,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>241.8130382709596</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>579.7514259114425</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412263</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043186</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221134</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K42" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541604</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
@@ -38190,10 +38190,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
